--- a/biology/Zoologie/Elephantidae/Elephantidae.xlsx
+++ b/biology/Zoologie/Elephantidae/Elephantidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éléphantidés, Éléphants
 Les Éléphantidés (Elephantidae), ou plus simplement les éléphants, sont une famille de mammifères de l'ordre des Proboscidiens. C'est la seule famille de cet ordre qui existe encore actuellement. Elle compte de très nombreuses espèces aujourd'hui disparues, et notamment les mammouths. Ce sont tous de très grands animaux dotés d'une trompe caractéristique.
@@ -515,18 +527,89 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite pour la première fois en 1821 par le zoologiste britannique John Edward Gray (1800-1875).
-Liste des genres et espèces actuelles
-Selon Mammal Species of the World (version 3, 2005)  (3 avril 2014)[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elephantidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elephantidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres et espèces actuelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (3 avril 2014) :
 genre Elephas Linnaeus, 1758
 espèce Elephas maximus - Éléphant d'Asie
 genre Loxodonta Anonymous, 1827
 espèce Loxodonta africana - Éléphant de savane d'Afrique
-espèce Loxodonta cyclotis - Éléphant de forêt d'Afrique
-Taxons fossiles
-Liste des genres éteints d'après Shoshani et al. (2004)[3]:
+espèce Loxodonta cyclotis - Éléphant de forêt d'Afrique</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elephantidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elephantidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des genres éteints d'après Shoshani et al. (2004):
 Sous-famille † Stegotetrabelodontinae Aguirre, 1969:
 † Stegodibelodon Coppens, 1972
 † Stegotetrabelodon Petrocchi, 1941
@@ -543,79 +626,188 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Elephantidae</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Elephantidae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elephantidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elephantidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des genres d'éléphants ainsi que d'autres familles proches, d'après les caractéristiques de leur os hyoïde, selon Shoshani et al. (2007)[4], les caractéristiques anatomiques du squelette, selon Cozzuol et al. 2012[5], et les caractéristiques génétiques selon Meyer et al. 2017[6] :
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Elephantidae</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Elephantidae</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des genres d'éléphants ainsi que d'autres familles proches, d'après les caractéristiques de leur os hyoïde, selon Shoshani et al. (2007), les caractéristiques anatomiques du squelette, selon Cozzuol et al. 2012, et les caractéristiques génétiques selon Meyer et al. 2017 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elephantidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elephantidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Comparaisons des Elephantidae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les éléphants sont les plus grands animaux terrestres vivants actuellement[7],[8]. À la naissance, l'éléphant pèse environ 120 kilogrammes. La période de gestation d'une éléphante, la plus longue de tous les animaux terrestres, dure de 20 à 22 mois. Un éléphant peut vivre jusqu'à 70 ans. Le plus grand éléphant enregistré, un mâle de 12 tonnes, l'a été en Angola, en 1974[réf. souhaitée].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les éléphants sont les plus grands animaux terrestres vivants actuellement,. À la naissance, l'éléphant pèse environ 120 kilogrammes. La période de gestation d'une éléphante, la plus longue de tous les animaux terrestres, dure de 20 à 22 mois. Un éléphant peut vivre jusqu'à 70 ans. Le plus grand éléphant enregistré, un mâle de 12 tonnes, l'a été en Angola, en 1974[réf. souhaitée].
 De plus petits éléphantidés, hauts jusqu'au mollet ou de la taille d'un grand cochon, ont habité sur l'île de Crète jusqu'en 5 000 av. J-C, (et probablement jusqu'en 3 000 av. J-C). Leurs crânes dispersés, présentant un grand trou unique sur le devant, sont à l'origine de la croyance en l'existence des Cyclopes, ces géants borgnes présentés dans l'Odyssée d'Homère[réf. souhaitée].
-Physionomie
-La caractéristique la plus marquante des éléphants est leur trompe, incroyable organe à tout faire, riche de 150 000 muscles, et pouvant peser près de 100 kg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Elephantidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elephantidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comparaisons des Elephantidae</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Physionomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La caractéristique la plus marquante des éléphants est leur trompe, incroyable organe à tout faire, riche de 150 000 muscles, et pouvant peser près de 100 kg.
 Les défenses sont des incisives supérieures à croissance continue. Chez les éléphants, la formule dentaire n'est jamais complète (deux prémolaires et trois molaires). L'éléphanteau possède des prémolaires de lait qui tombent lorsque les molaires apparaissent, il n'y a pas de prémolaires définitives. Quand la troisième molaire apparaît, c'est au tour de la première de tomber. Un éléphant adulte ne possède que deux molaires et, lorsqu'il devient très âgé, il ne lui reste plus que sa troisième molaire.
-De plus en plus d'éléphants naissent sans défenses, et n'en auront jamais de leur vie. L'espèce tend, par sélection naturelle, à ne plus en avoir[9].
+De plus en plus d'éléphants naissent sans défenses, et n'en auront jamais de leur vie. L'espèce tend, par sélection naturelle, à ne plus en avoir.
 Précision: cette sélection, loin d'être naturelle a été induite par l'homme. En chassant en priorité les porteurs de grandes défenses, nous avons favorisé la reproduction d'individus aux défenses modestes ou inexistantes.
 La période de gestation moyenne de l'éléphant est de 22 mois.
 Les mâles en musth (rut), dont le taux sanguin de testostérone peut s'accroître cinquante fois, agitent les oreilles et secouent la tête. De leur pénis devenu vert, dégouline une urine fortement odorante.
-L'Éléphant d'Afrique
-L'Éléphant d’Afrique (espèces du genre Loxodonta), a été trouvé dans plusieurs régions sur le continent africain, d'où son nom. Ces dernières années, les survivants attirent l'attention du monde, à cause de leur disparition probable. Aujourd'hui, environ 600 000 éléphants d'Afrique vivent sur Terre. Pour certains, les mesures de protection d'une telle population stable sont inutiles. Pour d'autres, les éléphants sont localement surabondants dans certains secteurs, mais leur population générale diminue de façon alarmante, puisqu'en 1979 on l'estimait en effet à 1,3 million. Le déclin est principalement attribué au braconnage, et à la perte d'habitat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Elephantidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elephantidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Comparaisons des Elephantidae</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L'Éléphant d'Afrique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Éléphant d’Afrique (espèces du genre Loxodonta), a été trouvé dans plusieurs régions sur le continent africain, d'où son nom. Ces dernières années, les survivants attirent l'attention du monde, à cause de leur disparition probable. Aujourd'hui, environ 600 000 éléphants d'Afrique vivent sur Terre. Pour certains, les mesures de protection d'une telle population stable sont inutiles. Pour d'autres, les éléphants sont localement surabondants dans certains secteurs, mais leur population générale diminue de façon alarmante, puisqu'en 1979 on l'estimait en effet à 1,3 million. Le déclin est principalement attribué au braconnage, et à la perte d'habitat.
 Les éléphants d'Afrique peuvent se distinguer de l'éléphant d'Asie. La première différence visible est la forme des oreilles, beaucoup plus grandes et dont la forme évoque celle du continent africain. La seconde est la taille, plus grande. La troisième est le dos concave. Les mâles et les femelles ont des défenses externes, et sont d'habitude moins poilus que leurs cousins asiatiques.
 Dans le genre Loxodonta, la plupart des scientifiques reconnaissent deux espèces ou sous-espèces distinctes. La première est l'Éléphant de savane d'Afrique Loxodonta (africana) africana, le plus grand animal terrestre du monde, qui mesure au maximum 4 mètres à l'épaule et pèse approximativement 7,7 tonnes. Ce groupe se rencontre en prairie, marécage, et bord de fleuve, du Sahara jusqu'en Afrique du Sud.
 La seconde, moins nombreuse, est l'Éléphant de forêt d'Afrique, Loxodonta (africana) cyclotis, à oreilles généralement plus petites et plus circulaires, et à défenses plus minces et plus droites. L'éléphant de forêt peut peser jusqu'à cinq tonnes, et mesurer 3 mètres. Cette sous-espèce, moins connue en raison des obstacles écologiques et politiques, est plus difficile à étudier, et à protéger. Ils se rencontrent généralement en forêt dense d'Afrique centrale et d'Afrique de l'Ouest. On les trouve aussi parfois en bord de territoire forestier, comme les éléphants de buisson.
-Alimentation
-L'éléphant est végétarien, il se nourrit d'une grande variété d'éléments végétaux : herbes, plantes, feuilles, fruits, racines et tubercules, écorces et même bois. Il apprécie par exemple le bois tendre et gorgé de sève du baobab.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Elephantidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elephantidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Comparaisons des Elephantidae</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'éléphant est végétarien, il se nourrit d'une grande variété d'éléments végétaux : herbes, plantes, feuilles, fruits, racines et tubercules, écorces et même bois. Il apprécie par exemple le bois tendre et gorgé de sève du baobab.
 Les besoins alimentaires de l'éléphant sont importants, surtout qualitativement. En fonction de son environnement, il consacre une grande partie de son temps à la recherche de nourriture (16 à 20 heures par jour), se déplaçant sur de longues distances et sélectionnant les aliments les plus riches. Il peut se dresser sur ses pattes arrière pour attraper avec sa trompe les rameaux les plus tendres jusqu'à cinq ou six mètres de hauteur.
 Quotidiennement, il faut à l'éléphant entre 150 et 180 kg de nourriture en saison sèche, et entre 200 et 260 kg en saison des pluies. Ces quantités varient aussi en fonction des espèces et des milieux fréquentés.
 Un éléphant adulte boit environ cent litres d'eau par jour. Il peut rester trois ou quatre jours sans boire. Il peut se servir de sa trompe pour reprendre de l'eau dans son estomac, et s'en servir pour se rafraîchir la peau.
@@ -625,31 +817,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Elephantidae</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Elephantidae</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Elephantidae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elephantidae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Évolution des Éléphantidés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mammouths et les éléphants appartiennent a l'ordre des Proboscidea, ordre dont les plus vieux membres connues sont l’Eritherium et le Phosphaterium petits mammifères sans trompe et aussi grands qu'un chien, il y a 60 millions d'années. 
 On a longtemps cru qu'il n'existait que deux espèces d'éléphants, avec des variétés :
@@ -660,31 +854,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Elephantidae</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Elephantidae</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Elephantidae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elephantidae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Les Éléphantidés et l'homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont été utilisés comme source de viande puis l'éléphant a occupé de nombreuses fonctions comme animal de trait ou éléphant de guerre par les humains.
 Le conducteur d'un éléphant est appelé cornac ou mahout.
